--- a/output/1Y_P89_KFSDIV.xlsx
+++ b/output/1Y_P89_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.4908</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.6308</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E3" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="F3" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="H3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0133</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>10.3176</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E4" s="1">
-        <v>1893.8791</v>
+        <v>1890.0939</v>
       </c>
       <c r="F4" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="H4" s="1">
-        <v>19540.2873</v>
+        <v>19462.2967</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19540.2873</v>
+        <v>19462.2967</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5603</v>
+        <v>10.5815</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0295</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>10.2392</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E5" s="1">
-        <v>2863.0968</v>
+        <v>2857.3709</v>
       </c>
       <c r="F5" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="H5" s="1">
-        <v>29315.8205</v>
+        <v>29198.616</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29315.8205</v>
+        <v>29198.616</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4782</v>
+        <v>10.4992</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0076</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D6" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3839.7356</v>
+        <v>3832.0583</v>
       </c>
       <c r="F6" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="H6" s="1">
-        <v>38316.3374</v>
+        <v>38163.4683</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38316.3374</v>
+        <v>38163.4683</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4174</v>
+        <v>10.4383</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>644.1968000000001</v>
+        <v>642.9085</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9355.8032</v>
+        <v>-9357.0915</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0254</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>10.1873</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E7" s="1">
-        <v>4841.84</v>
+        <v>4832.1583</v>
       </c>
       <c r="F7" s="1">
-        <v>990.648</v>
+        <v>988.6501</v>
       </c>
       <c r="H7" s="1">
-        <v>49325.2766</v>
+        <v>49128.07</v>
       </c>
       <c r="I7" s="1">
-        <v>644.1968000000001</v>
+        <v>642.9085</v>
       </c>
       <c r="J7" s="1">
-        <v>49969.4734</v>
+        <v>49770.9785</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3267</v>
+        <v>10.3473</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10092.0281</v>
+        <v>-10091.8441</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0342</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>10.4058</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E8" s="1">
-        <v>5832.488</v>
+        <v>5820.8084</v>
       </c>
       <c r="F8" s="1">
-        <v>969.8464</v>
+        <v>967.8848</v>
       </c>
       <c r="H8" s="1">
-        <v>60691.7033</v>
+        <v>60449.0955</v>
       </c>
       <c r="I8" s="1">
-        <v>552.1686999999999</v>
+        <v>551.0644</v>
       </c>
       <c r="J8" s="1">
-        <v>61243.872</v>
+        <v>61000.1599</v>
       </c>
       <c r="K8" s="1">
-        <v>60092.0281</v>
+        <v>60091.8441</v>
       </c>
       <c r="L8" s="1">
-        <v>10.303</v>
+        <v>10.3236</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10092.0281</v>
+        <v>-10091.8441</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0213</v>
+        <v>0.0206</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.2688</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E9" s="1">
-        <v>6802.3344</v>
+        <v>6788.6932</v>
       </c>
       <c r="F9" s="1">
-        <v>982.7855</v>
+        <v>980.8001</v>
       </c>
       <c r="H9" s="1">
-        <v>69851.8116</v>
+        <v>69572.5644</v>
       </c>
       <c r="I9" s="1">
-        <v>460.1406</v>
+        <v>459.2203</v>
       </c>
       <c r="J9" s="1">
-        <v>70311.9522</v>
+        <v>70031.7847</v>
       </c>
       <c r="K9" s="1">
-        <v>70184.05620000001</v>
+        <v>70183.6881</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>524.9239</v>
+        <v>523.8728</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9567.1042</v>
+        <v>-9567.971299999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0131</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>10.4938</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E10" s="1">
-        <v>7785.12</v>
+        <v>7769.4932</v>
       </c>
       <c r="F10" s="1">
-        <v>974.2190000000001</v>
+        <v>972.2308</v>
       </c>
       <c r="H10" s="1">
-        <v>81695.4917</v>
+        <v>81368.34880000001</v>
       </c>
       <c r="I10" s="1">
-        <v>893.0364</v>
+        <v>891.249</v>
       </c>
       <c r="J10" s="1">
-        <v>82588.5281</v>
+        <v>82259.5978</v>
       </c>
       <c r="K10" s="1">
-        <v>80276.0843</v>
+        <v>80275.5322</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3115</v>
+        <v>10.3321</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10223.2591</v>
+        <v>-10222.8123</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0283</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.5481</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E11" s="1">
-        <v>8759.338900000001</v>
+        <v>8741.724</v>
       </c>
       <c r="F11" s="1">
-        <v>969.2038</v>
+        <v>967.2267000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>92394.3829</v>
+        <v>92024.12880000001</v>
       </c>
       <c r="I11" s="1">
-        <v>669.7773</v>
+        <v>668.4367999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>93064.1602</v>
+        <v>92692.5656</v>
       </c>
       <c r="K11" s="1">
-        <v>90499.3434</v>
+        <v>90498.3444</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3318</v>
+        <v>10.3525</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10223.2591</v>
+        <v>-10222.8123</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>10.3262</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E12" s="1">
-        <v>9728.542799999999</v>
+        <v>9708.950699999999</v>
       </c>
       <c r="F12" s="1">
-        <v>990.0311</v>
+        <v>988.0073</v>
       </c>
       <c r="H12" s="1">
-        <v>100458.8784</v>
+        <v>100055.5915</v>
       </c>
       <c r="I12" s="1">
-        <v>446.5182</v>
+        <v>445.6245</v>
       </c>
       <c r="J12" s="1">
-        <v>100905.3966</v>
+        <v>100501.216</v>
       </c>
       <c r="K12" s="1">
-        <v>100722.6025</v>
+        <v>100721.1567</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3533</v>
+        <v>10.3741</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>1970.8513</v>
+        <v>1966.8879</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8252.407800000001</v>
+        <v>-8255.924300000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0209</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.462</v>
       </c>
       <c r="C13" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D13" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E13" s="1">
-        <v>10718.5739</v>
+        <v>10696.958</v>
       </c>
       <c r="F13" s="1">
-        <v>1165.5621</v>
+        <v>1162.8065</v>
       </c>
       <c r="H13" s="1">
-        <v>112137.7198</v>
+        <v>111688.0078</v>
       </c>
       <c r="I13" s="1">
-        <v>2194.1103</v>
+        <v>2189.7002</v>
       </c>
       <c r="J13" s="1">
-        <v>114331.8301</v>
+        <v>113877.7079</v>
       </c>
       <c r="K13" s="1">
-        <v>110945.8616</v>
+        <v>110943.969</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3508</v>
+        <v>10.3715</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12194.1103</v>
+        <v>-12189.7002</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0309</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.5775</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E14" s="1">
-        <v>11884.1359</v>
+        <v>11859.7644</v>
       </c>
       <c r="F14" s="1">
-        <v>-11884.1359</v>
+        <v>-11859.7644</v>
       </c>
       <c r="H14" s="1">
-        <v>125704.4478</v>
+        <v>125195.2312</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>125704.4478</v>
+        <v>125195.2312</v>
       </c>
       <c r="K14" s="1">
-        <v>123139.972</v>
+        <v>123133.6691</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3617</v>
+        <v>10.3825</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125704.4478</v>
+        <v>125195.2312</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.4908</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.6308</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E3" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="F3" s="1">
-        <v>928.1098</v>
+        <v>933.7911</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9866.5497</v>
+        <v>-9946.836300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0133</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>10.3176</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E4" s="1">
-        <v>1881.326</v>
+        <v>1885.103</v>
       </c>
       <c r="F4" s="1">
-        <v>982.1519</v>
+        <v>972.4194</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19410.7687</v>
+        <v>19410.9053</v>
       </c>
       <c r="I4" s="1">
-        <v>133.4503</v>
+        <v>53.1637</v>
       </c>
       <c r="J4" s="1">
-        <v>19544.219</v>
+        <v>19464.069</v>
       </c>
       <c r="K4" s="1">
-        <v>19866.5497</v>
+        <v>19946.8363</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5599</v>
+        <v>10.5813</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10133.4503</v>
+        <v>-10053.1637</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0293</v>
+        <v>-0.0313</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>10.2392</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E5" s="1">
-        <v>2863.4778</v>
+        <v>2857.5224</v>
       </c>
       <c r="F5" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>29319.7223</v>
+        <v>29200.1641</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29319.7223</v>
+        <v>29200.1641</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4768</v>
+        <v>10.4986</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0076</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D6" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3840.1166</v>
+        <v>3832.2098</v>
       </c>
       <c r="F6" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38320.1399</v>
+        <v>38164.977</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38320.1399</v>
+        <v>38164.977</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4164</v>
+        <v>10.4378</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>644.2825</v>
+        <v>642.9425</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9355.717500000001</v>
+        <v>-9357.057500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0254</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>10.1873</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E7" s="1">
-        <v>4842.2211</v>
+        <v>4832.3098</v>
       </c>
       <c r="F7" s="1">
-        <v>1044.8581</v>
+        <v>1042.6386</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49329.1586</v>
+        <v>49129.6102</v>
       </c>
       <c r="I7" s="1">
-        <v>644.2825</v>
+        <v>642.9425</v>
       </c>
       <c r="J7" s="1">
-        <v>49973.4411</v>
+        <v>49772.5527</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3258</v>
+        <v>10.347</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10644.2825</v>
+        <v>-10642.9425</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0342</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>10.4058</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E8" s="1">
-        <v>5887.0791</v>
+        <v>5874.9484</v>
       </c>
       <c r="F8" s="1">
-        <v>839.9385</v>
+        <v>865.5427</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>61259.7679</v>
+        <v>61011.3393</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61259.7679</v>
+        <v>61011.3393</v>
       </c>
       <c r="K8" s="1">
-        <v>60644.2825</v>
+        <v>60642.9425</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3013</v>
+        <v>10.3223</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8740.232099999999</v>
+        <v>-9024.7538</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0214</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.2688</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E9" s="1">
-        <v>6727.0176</v>
+        <v>6740.4911</v>
       </c>
       <c r="F9" s="1">
-        <v>1063.5713</v>
+        <v>1065.6816</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>69078.3986</v>
+        <v>69078.57490000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1259.7679</v>
+        <v>975.2462</v>
       </c>
       <c r="J9" s="1">
-        <v>70338.16650000001</v>
+        <v>70053.8211</v>
       </c>
       <c r="K9" s="1">
-        <v>69384.51459999999</v>
+        <v>69667.6963</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3143</v>
+        <v>10.3357</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>529.8371</v>
+        <v>528.7454</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10391.7643</v>
+        <v>-10436.4793</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0129</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>10.4938</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E10" s="1">
-        <v>7790.589</v>
+        <v>7806.1727</v>
       </c>
       <c r="F10" s="1">
-        <v>785.9038</v>
+        <v>787.5176</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>81752.88250000001</v>
+        <v>81752.48579999999</v>
       </c>
       <c r="I10" s="1">
-        <v>868.0036</v>
+        <v>538.7669</v>
       </c>
       <c r="J10" s="1">
-        <v>82620.8861</v>
+        <v>82291.2527</v>
       </c>
       <c r="K10" s="1">
-        <v>80306.11599999999</v>
+        <v>80632.921</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3081</v>
+        <v>10.3294</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8247.1175</v>
+        <v>-8280.59</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0284</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.5481</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E11" s="1">
-        <v>8576.4928</v>
+        <v>8593.6903</v>
       </c>
       <c r="F11" s="1">
-        <v>903.8876</v>
+        <v>905.6922</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>90465.70359999999</v>
+        <v>90465.77800000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2620.8861</v>
+        <v>2258.177</v>
       </c>
       <c r="J11" s="1">
-        <v>93086.5897</v>
+        <v>92723.955</v>
       </c>
       <c r="K11" s="1">
-        <v>88553.2335</v>
+        <v>88913.51089999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3251</v>
+        <v>10.3464</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9534.296399999999</v>
+        <v>-9572.4422</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.005</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>10.3262</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E12" s="1">
-        <v>9480.3804</v>
+        <v>9499.3825</v>
       </c>
       <c r="F12" s="1">
-        <v>1172.1346</v>
+        <v>1174.5294</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>97896.3036</v>
+        <v>97895.88679999999</v>
       </c>
       <c r="I12" s="1">
-        <v>3086.5897</v>
+        <v>2685.7348</v>
       </c>
       <c r="J12" s="1">
-        <v>100982.8933</v>
+        <v>100581.6215</v>
       </c>
       <c r="K12" s="1">
-        <v>98087.52989999999</v>
+        <v>98485.9531</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3464</v>
+        <v>10.3676</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>1929.7109</v>
+        <v>1933.5803</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10173.9855</v>
+        <v>-10219.1584</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0204</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.462</v>
       </c>
       <c r="C13" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D13" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E13" s="1">
-        <v>10652.515</v>
+        <v>10673.912</v>
       </c>
       <c r="F13" s="1">
-        <v>817.5672</v>
+        <v>819.1299</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111446.6115</v>
+        <v>111447.3825</v>
       </c>
       <c r="I13" s="1">
-        <v>2912.6042</v>
+        <v>2466.5763</v>
       </c>
       <c r="J13" s="1">
-        <v>114359.2157</v>
+        <v>113913.9588</v>
       </c>
       <c r="K13" s="1">
-        <v>110191.2263</v>
+        <v>110638.6919</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3442</v>
+        <v>10.3653</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8553.388499999999</v>
+        <v>-8586.9391</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0304</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.5775</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E14" s="1">
-        <v>11470.0822</v>
+        <v>11493.0419</v>
       </c>
       <c r="F14" s="1">
-        <v>-11470.0822</v>
+        <v>-11493.0419</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121324.7945</v>
+        <v>121323.9984</v>
       </c>
       <c r="I14" s="1">
-        <v>4359.2157</v>
+        <v>3879.6373</v>
       </c>
       <c r="J14" s="1">
-        <v>125684.0102</v>
+        <v>125203.6357</v>
       </c>
       <c r="K14" s="1">
-        <v>118744.6148</v>
+        <v>119225.631</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3526</v>
+        <v>10.3737</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121324.7945</v>
+        <v>121323.9984</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0107</v>
+        <v>0.0104</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>10.4908</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.6308</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E3" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="F3" s="1">
-        <v>932.8131</v>
+        <v>938.5039</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9916.5497</v>
+        <v>-9997.0371</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0133</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>10.3176</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E4" s="1">
-        <v>1886.0293</v>
+        <v>1889.8157</v>
       </c>
       <c r="F4" s="1">
-        <v>977.3058</v>
+        <v>967.5636</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19459.2956</v>
+        <v>19459.4326</v>
       </c>
       <c r="I4" s="1">
-        <v>83.4503</v>
+        <v>2.9629</v>
       </c>
       <c r="J4" s="1">
-        <v>19542.7459</v>
+        <v>19462.3955</v>
       </c>
       <c r="K4" s="1">
-        <v>19916.5497</v>
+        <v>19997.0371</v>
       </c>
       <c r="L4" s="1">
-        <v>10.56</v>
+        <v>10.5815</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10083.4503</v>
+        <v>-10002.9629</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0293</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>10.2392</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E5" s="1">
-        <v>2863.3351</v>
+        <v>2857.3793</v>
       </c>
       <c r="F5" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29318.2604</v>
+        <v>29198.7023</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29318.2604</v>
+        <v>29198.7023</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4773</v>
+        <v>10.4991</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0076</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D6" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3839.9739</v>
+        <v>3832.0667</v>
       </c>
       <c r="F6" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>38318.7152</v>
+        <v>38163.5524</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38318.7152</v>
+        <v>38163.5524</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4167</v>
+        <v>10.4382</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>644.2504</v>
+        <v>642.9104</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9355.749599999999</v>
+        <v>-9357.089599999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0254</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>10.1873</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E7" s="1">
-        <v>4842.0783</v>
+        <v>4832.1667</v>
       </c>
       <c r="F7" s="1">
-        <v>1044.8549</v>
+        <v>1042.6355</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>49327.7041</v>
+        <v>49128.1559</v>
       </c>
       <c r="I7" s="1">
-        <v>644.2504</v>
+        <v>642.9104</v>
       </c>
       <c r="J7" s="1">
-        <v>49971.9545</v>
+        <v>49771.0662</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3261</v>
+        <v>10.3473</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10644.2504</v>
+        <v>-10642.9104</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0342</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>10.4058</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E8" s="1">
-        <v>5886.9332</v>
+        <v>5874.8022</v>
       </c>
       <c r="F8" s="1">
-        <v>941.8348</v>
+        <v>959.0762</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61258.2494</v>
+        <v>61009.821</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>61258.2494</v>
+        <v>61009.821</v>
       </c>
       <c r="K8" s="1">
-        <v>60644.2504</v>
+        <v>60642.9104</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3015</v>
+        <v>10.3225</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9800.5445</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0214</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.2688</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E9" s="1">
-        <v>6828.768</v>
+        <v>6833.8784</v>
       </c>
       <c r="F9" s="1">
-        <v>993.2471</v>
+        <v>971.874</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>70123.2527</v>
+        <v>70035.6364</v>
       </c>
       <c r="I9" s="1">
-        <v>199.4555</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70322.70819999999</v>
+        <v>70035.6364</v>
       </c>
       <c r="K9" s="1">
-        <v>70444.7948</v>
+        <v>70642.91039999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3159</v>
+        <v>10.3372</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>529.824</v>
+        <v>528.7322</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9669.631600000001</v>
+        <v>-9471.2678</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0131</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>10.4938</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E10" s="1">
-        <v>7822.0151</v>
+        <v>7805.7524</v>
       </c>
       <c r="F10" s="1">
-        <v>928.0239</v>
+        <v>961.832</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82082.66160000001</v>
+        <v>81748.08379999999</v>
       </c>
       <c r="I10" s="1">
-        <v>529.824</v>
+        <v>528.7322</v>
       </c>
       <c r="J10" s="1">
-        <v>82612.4856</v>
+        <v>82276.81600000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80644.2504</v>
+        <v>80642.91039999999</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3099</v>
+        <v>10.3312</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9738.4967</v>
+        <v>-10113.4715</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0285</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.5481</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E11" s="1">
-        <v>8750.0389</v>
+        <v>8767.5844</v>
       </c>
       <c r="F11" s="1">
-        <v>946.5192</v>
+        <v>948.4091</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>92296.28539999999</v>
+        <v>92296.36139999999</v>
       </c>
       <c r="I11" s="1">
-        <v>791.3273</v>
+        <v>415.2607</v>
       </c>
       <c r="J11" s="1">
-        <v>93087.6127</v>
+        <v>92711.62209999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90382.74709999999</v>
+        <v>90756.3818</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3294</v>
+        <v>10.3514</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9983.9787</v>
+        <v>-10023.9256</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>10.3262</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E12" s="1">
-        <v>9696.5581</v>
+        <v>9715.9935</v>
       </c>
       <c r="F12" s="1">
-        <v>1046.5949</v>
+        <v>1004.2945</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>100128.5978</v>
+        <v>100128.1715</v>
       </c>
       <c r="I12" s="1">
-        <v>807.3486</v>
+        <v>391.3352</v>
       </c>
       <c r="J12" s="1">
-        <v>100935.9465</v>
+        <v>100519.5067</v>
       </c>
       <c r="K12" s="1">
-        <v>100366.7258</v>
+        <v>100780.3074</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3508</v>
+        <v>10.3726</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>1968.7588</v>
+        <v>1972.7065</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8838.589900000001</v>
+        <v>-8418.628699999999</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0209</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.462</v>
       </c>
       <c r="C13" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D13" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E13" s="1">
-        <v>10743.153</v>
+        <v>10720.2881</v>
       </c>
       <c r="F13" s="1">
-        <v>1047.6732</v>
+        <v>1094.1399</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>112394.8666</v>
+        <v>111931.6</v>
       </c>
       <c r="I13" s="1">
-        <v>1968.7588</v>
+        <v>1972.7065</v>
       </c>
       <c r="J13" s="1">
-        <v>114363.6254</v>
+        <v>113904.3064</v>
       </c>
       <c r="K13" s="1">
-        <v>111174.0744</v>
+        <v>111171.6426</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3484</v>
+        <v>10.3702</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10960.7571</v>
+        <v>-11469.8682</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0309</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.5775</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E14" s="1">
-        <v>11790.8262</v>
+        <v>11814.428</v>
       </c>
       <c r="F14" s="1">
-        <v>-11790.8262</v>
+        <v>-11814.428</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124717.4642</v>
+        <v>124716.6458</v>
       </c>
       <c r="I14" s="1">
-        <v>1008.0017</v>
+        <v>502.8383</v>
       </c>
       <c r="J14" s="1">
-        <v>125725.4658</v>
+        <v>125219.4841</v>
       </c>
       <c r="K14" s="1">
-        <v>122134.8315</v>
+        <v>122641.5108</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3585</v>
+        <v>10.3807</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>124717.4642</v>
+        <v>124716.6458</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.4908</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.6308</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E3" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="F3" s="1">
-        <v>937.5164</v>
+        <v>938.782</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9966.5497</v>
+        <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0133</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>10.3176</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E4" s="1">
-        <v>1890.7326</v>
+        <v>1890.0939</v>
       </c>
       <c r="F4" s="1">
-        <v>972.4597</v>
+        <v>967.277</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19507.8226</v>
+        <v>19462.2967</v>
       </c>
       <c r="I4" s="1">
-        <v>33.4503</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19541.2728</v>
+        <v>19462.2967</v>
       </c>
       <c r="K4" s="1">
-        <v>19966.5497</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5602</v>
+        <v>10.5815</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10033.4503</v>
+        <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0294</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>10.2392</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E5" s="1">
-        <v>2863.1923</v>
+        <v>2857.3709</v>
       </c>
       <c r="F5" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29316.7985</v>
+        <v>29198.616</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29316.7985</v>
+        <v>29198.616</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4778</v>
+        <v>10.4992</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0076</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D6" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3839.8311</v>
+        <v>3832.0583</v>
       </c>
       <c r="F6" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>38317.2905</v>
+        <v>38163.4683</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38317.2905</v>
+        <v>38163.4683</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4171</v>
+        <v>10.4383</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>644.2183</v>
+        <v>642.9085</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9355.7817</v>
+        <v>-9357.0915</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0254</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>10.1873</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E7" s="1">
-        <v>4841.9355</v>
+        <v>4832.1583</v>
       </c>
       <c r="F7" s="1">
-        <v>1044.8518</v>
+        <v>1042.6353</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>49326.2497</v>
+        <v>49128.07</v>
       </c>
       <c r="I7" s="1">
-        <v>644.2183</v>
+        <v>642.9085</v>
       </c>
       <c r="J7" s="1">
-        <v>49970.4679</v>
+        <v>49770.9785</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3264</v>
+        <v>10.3473</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10644.2183</v>
+        <v>-10642.9085</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0342</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>10.4058</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E8" s="1">
-        <v>5886.7873</v>
+        <v>5874.7936</v>
       </c>
       <c r="F8" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>61256.7309</v>
+        <v>61009.7314</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>61256.7309</v>
+        <v>61009.7314</v>
       </c>
       <c r="K8" s="1">
-        <v>60644.2183</v>
+        <v>60642.9085</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3018</v>
+        <v>10.3226</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0214</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.2688</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E9" s="1">
-        <v>6847.7898</v>
+        <v>6833.8698</v>
       </c>
       <c r="F9" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>70318.5837</v>
+        <v>70035.548</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70318.5837</v>
+        <v>70035.548</v>
       </c>
       <c r="K9" s="1">
-        <v>70644.21829999999</v>
+        <v>70642.90850000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3164</v>
+        <v>10.3372</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>529.8108999999999</v>
+        <v>528.7314</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9470.1891</v>
+        <v>-9471.268599999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0132</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>10.4938</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E10" s="1">
-        <v>7821.6134</v>
+        <v>7805.7438</v>
       </c>
       <c r="F10" s="1">
-        <v>1003.4316</v>
+        <v>1001.3249</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82078.44680000001</v>
+        <v>81747.99340000001</v>
       </c>
       <c r="I10" s="1">
-        <v>529.8108999999999</v>
+        <v>528.7314</v>
       </c>
       <c r="J10" s="1">
-        <v>82608.2576</v>
+        <v>82276.7248</v>
       </c>
       <c r="K10" s="1">
-        <v>80644.21829999999</v>
+        <v>80642.90850000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3104</v>
+        <v>10.3312</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10529.8109</v>
+        <v>-10528.7314</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0285</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.5481</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E11" s="1">
-        <v>8825.045</v>
+        <v>8807.0687</v>
       </c>
       <c r="F11" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93087.45759999999</v>
+        <v>92712.0123</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>93087.45759999999</v>
+        <v>92712.0123</v>
       </c>
       <c r="K11" s="1">
-        <v>91174.0291</v>
+        <v>91171.63989999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3313</v>
+        <v>10.3521</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0052</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>10.3262</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E12" s="1">
-        <v>9773.0831</v>
+        <v>9753.214099999999</v>
       </c>
       <c r="F12" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>100918.8104</v>
+        <v>100511.7481</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>100918.8104</v>
+        <v>100511.7481</v>
       </c>
       <c r="K12" s="1">
-        <v>101174.0291</v>
+        <v>101171.6399</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3523</v>
+        <v>10.3732</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>1985.6351</v>
+        <v>1981.5905</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8014.3649</v>
+        <v>-8018.4095</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.462</v>
       </c>
       <c r="C13" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D13" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E13" s="1">
-        <v>10741.4935</v>
+        <v>10719.6872</v>
       </c>
       <c r="F13" s="1">
-        <v>1145.6352</v>
+        <v>1142.9544</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>112377.5052</v>
+        <v>111925.3256</v>
       </c>
       <c r="I13" s="1">
-        <v>1985.6351</v>
+        <v>1981.5905</v>
       </c>
       <c r="J13" s="1">
-        <v>114363.1404</v>
+        <v>113906.9161</v>
       </c>
       <c r="K13" s="1">
-        <v>111174.0291</v>
+        <v>111171.6399</v>
       </c>
       <c r="L13" s="1">
-        <v>10.35</v>
+        <v>10.3708</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11985.6351</v>
+        <v>-11981.5905</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0311</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.5775</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E14" s="1">
-        <v>11887.1287</v>
+        <v>11862.6415</v>
       </c>
       <c r="F14" s="1">
-        <v>-11887.1287</v>
+        <v>-11862.6415</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125736.1037</v>
+        <v>125225.6026</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>125736.1037</v>
+        <v>125225.6026</v>
       </c>
       <c r="K14" s="1">
-        <v>123159.6643</v>
+        <v>123153.2303</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3608</v>
+        <v>10.3816</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125736.1037</v>
+        <v>125225.6026</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3688,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -3760,16 +3760,16 @@
         <v>10.4908</v>
       </c>
       <c r="C2" s="1">
-        <v>10.4908</v>
+        <v>10.4698</v>
       </c>
       <c r="D2" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.6308</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6308</v>
+        <v>10.6095</v>
       </c>
       <c r="D3" s="1">
-        <v>10.6308</v>
+        <v>10.6521</v>
       </c>
       <c r="E3" s="1">
-        <v>953.2162</v>
+        <v>951.3119</v>
       </c>
       <c r="F3" s="1">
-        <v>940.663</v>
+        <v>938.782</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10133.4503</v>
+        <v>10092.9432</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.4908</v>
+        <v>10.5118</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0133</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>10.3176</v>
       </c>
       <c r="C4" s="1">
-        <v>10.3176</v>
+        <v>10.297</v>
       </c>
       <c r="D4" s="1">
-        <v>10.3176</v>
+        <v>10.3383</v>
       </c>
       <c r="E4" s="1">
-        <v>1893.8791</v>
+        <v>1890.0939</v>
       </c>
       <c r="F4" s="1">
-        <v>969.2175999999999</v>
+        <v>967.277</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19540.2873</v>
+        <v>19462.2967</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>19540.2873</v>
+        <v>19462.2967</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>10.5603</v>
+        <v>10.5815</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0295</v>
+        <v>-0.0314</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>10.2392</v>
       </c>
       <c r="C5" s="1">
-        <v>10.2392</v>
+        <v>10.2187</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2392</v>
+        <v>10.2597</v>
       </c>
       <c r="E5" s="1">
-        <v>2863.0968</v>
+        <v>2857.3709</v>
       </c>
       <c r="F5" s="1">
-        <v>976.6387999999999</v>
+        <v>974.6874</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29315.8205</v>
+        <v>29198.616</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>29315.8205</v>
+        <v>29198.616</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>10.4782</v>
+        <v>10.4992</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0076</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>9.978999999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>9.978899999999999</v>
+        <v>9.959</v>
       </c>
       <c r="D6" s="1">
-        <v>9.978999999999999</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>3839.7356</v>
+        <v>3832.0583</v>
       </c>
       <c r="F6" s="1">
-        <v>1002.1044</v>
+        <v>1000.1</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>38316.3374</v>
+        <v>38163.4683</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>38316.3374</v>
+        <v>38163.4683</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>10.4174</v>
+        <v>10.4383</v>
       </c>
       <c r="M6" s="1">
         <v>0.25</v>
       </c>
       <c r="N6" s="1">
-        <v>644.1968000000001</v>
+        <v>642.9085</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9355.8032</v>
+        <v>-9357.0915</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0254</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>10.1873</v>
       </c>
       <c r="C7" s="1">
-        <v>10.1873</v>
+        <v>10.1669</v>
       </c>
       <c r="D7" s="1">
-        <v>10.1873</v>
+        <v>10.2077</v>
       </c>
       <c r="E7" s="1">
-        <v>4841.84</v>
+        <v>4832.1583</v>
       </c>
       <c r="F7" s="1">
-        <v>1044.8496</v>
+        <v>1042.6353</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>49325.2766</v>
+        <v>49128.07</v>
       </c>
       <c r="I7" s="1">
-        <v>644.1968000000001</v>
+        <v>642.9085</v>
       </c>
       <c r="J7" s="1">
-        <v>49969.4734</v>
+        <v>49770.9785</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>10.3267</v>
+        <v>10.3473</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10644.1968</v>
+        <v>-10642.9085</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0342</v>
+        <v>0.0334</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>10.4058</v>
       </c>
       <c r="C8" s="1">
-        <v>10.4058</v>
+        <v>10.385</v>
       </c>
       <c r="D8" s="1">
-        <v>10.4058</v>
+        <v>10.4267</v>
       </c>
       <c r="E8" s="1">
-        <v>5886.6896</v>
+        <v>5874.7936</v>
       </c>
       <c r="F8" s="1">
-        <v>961.0025000000001</v>
+        <v>959.0762</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>61255.7151</v>
+        <v>61009.7314</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J8" s="1">
-        <v>61255.7151</v>
+        <v>61009.7314</v>
       </c>
       <c r="K8" s="1">
-        <v>60644.1968</v>
+        <v>60642.9085</v>
       </c>
       <c r="L8" s="1">
-        <v>10.3019</v>
+        <v>10.3226</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0214</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.2688</v>
       </c>
       <c r="C9" s="1">
-        <v>10.2688</v>
+        <v>10.2483</v>
       </c>
       <c r="D9" s="1">
-        <v>10.2688</v>
+        <v>10.2894</v>
       </c>
       <c r="E9" s="1">
-        <v>6847.6922</v>
+        <v>6833.8698</v>
       </c>
       <c r="F9" s="1">
-        <v>973.8236000000001</v>
+        <v>971.874</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>70317.5812</v>
+        <v>70035.548</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>70317.5812</v>
+        <v>70035.548</v>
       </c>
       <c r="K9" s="1">
-        <v>70644.19680000001</v>
+        <v>70642.90850000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.3165</v>
+        <v>10.3372</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>529.8021</v>
+        <v>528.7314</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9470.197899999999</v>
+        <v>-9471.268599999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0132</v>
+        <v>-0.0137</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>10.4938</v>
       </c>
       <c r="C10" s="1">
-        <v>10.4938</v>
+        <v>10.4728</v>
       </c>
       <c r="D10" s="1">
-        <v>10.4938</v>
+        <v>10.5148</v>
       </c>
       <c r="E10" s="1">
-        <v>7821.5158</v>
+        <v>7805.7438</v>
       </c>
       <c r="F10" s="1">
-        <v>1003.4308</v>
+        <v>1001.3249</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82077.42230000001</v>
+        <v>81747.99340000001</v>
       </c>
       <c r="I10" s="1">
-        <v>529.8021</v>
+        <v>528.7314</v>
       </c>
       <c r="J10" s="1">
-        <v>82607.22440000001</v>
+        <v>82276.7248</v>
       </c>
       <c r="K10" s="1">
-        <v>80644.19680000001</v>
+        <v>80642.90850000001</v>
       </c>
       <c r="L10" s="1">
-        <v>10.3106</v>
+        <v>10.3312</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10529.8021</v>
+        <v>-10528.7314</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0285</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.5481</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5481</v>
+        <v>10.527</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5481</v>
+        <v>10.5692</v>
       </c>
       <c r="E11" s="1">
-        <v>8824.946599999999</v>
+        <v>8807.0687</v>
       </c>
       <c r="F11" s="1">
-        <v>948.038</v>
+        <v>946.1454</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93086.41899999999</v>
+        <v>92712.0123</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>93086.41899999999</v>
+        <v>92712.0123</v>
       </c>
       <c r="K11" s="1">
-        <v>91173.9988</v>
+        <v>91171.63989999999</v>
       </c>
       <c r="L11" s="1">
-        <v>10.3314</v>
+        <v>10.3521</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0052</v>
+        <v>0.0047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>10.3262</v>
       </c>
       <c r="C12" s="1">
-        <v>10.3262</v>
+        <v>10.3055</v>
       </c>
       <c r="D12" s="1">
-        <v>10.3262</v>
+        <v>10.3469</v>
       </c>
       <c r="E12" s="1">
-        <v>9772.9846</v>
+        <v>9753.214099999999</v>
       </c>
       <c r="F12" s="1">
-        <v>968.4105</v>
+        <v>966.473</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>100917.7937</v>
+        <v>100511.7481</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>100917.7937</v>
+        <v>100511.7481</v>
       </c>
       <c r="K12" s="1">
-        <v>101173.9988</v>
+        <v>101171.6399</v>
       </c>
       <c r="L12" s="1">
-        <v>10.3524</v>
+        <v>10.3732</v>
       </c>
       <c r="M12" s="1">
         <v>0.25</v>
       </c>
       <c r="N12" s="1">
-        <v>1985.613</v>
+        <v>1981.5905</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8014.387</v>
+        <v>-8018.4095</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.021</v>
+        <v>-0.0214</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.462</v>
       </c>
       <c r="C13" s="1">
-        <v>10.462</v>
+        <v>10.4411</v>
       </c>
       <c r="D13" s="1">
-        <v>10.462</v>
+        <v>10.483</v>
       </c>
       <c r="E13" s="1">
-        <v>10741.3951</v>
+        <v>10719.6872</v>
       </c>
       <c r="F13" s="1">
-        <v>1145.6331</v>
+        <v>1142.9544</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>112376.4751</v>
+        <v>111925.3256</v>
       </c>
       <c r="I13" s="1">
-        <v>1985.613</v>
+        <v>1981.5905</v>
       </c>
       <c r="J13" s="1">
-        <v>114362.0881</v>
+        <v>113906.9161</v>
       </c>
       <c r="K13" s="1">
-        <v>111173.9988</v>
+        <v>111171.6399</v>
       </c>
       <c r="L13" s="1">
-        <v>10.3501</v>
+        <v>10.3708</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11985.613</v>
+        <v>-11981.5905</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0311</v>
+        <v>0.0307</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.5775</v>
       </c>
       <c r="C14" s="1">
-        <v>10.5775</v>
+        <v>10.5563</v>
       </c>
       <c r="D14" s="1">
-        <v>10.5775</v>
+        <v>10.5987</v>
       </c>
       <c r="E14" s="1">
-        <v>11887.0281</v>
+        <v>11862.6415</v>
       </c>
       <c r="F14" s="1">
-        <v>-11887.0281</v>
+        <v>-11862.6415</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125735.0398</v>
+        <v>125225.6026</v>
       </c>
       <c r="I14" s="1">
         <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>125735.0398</v>
+        <v>125225.6026</v>
       </c>
       <c r="K14" s="1">
-        <v>123159.6118</v>
+        <v>123153.2303</v>
       </c>
       <c r="L14" s="1">
-        <v>10.3608</v>
+        <v>10.3816</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125735.0398</v>
+        <v>125225.6026</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.011</v>
+        <v>0.0106</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4450,7 @@
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.3617</v>
+        <v>10.3825</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3526</v>
+        <v>10.3737</v>
       </c>
       <c r="E3" s="1">
-        <v>10.3585</v>
+        <v>10.3807</v>
       </c>
       <c r="F3" s="1">
-        <v>10.3608</v>
+        <v>10.3816</v>
       </c>
       <c r="G3" s="1">
-        <v>10.3608</v>
+        <v>10.3816</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0103</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0477</v>
+        <v>0.0352</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0479</v>
+        <v>0.0356</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0481</v>
+        <v>0.0355</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0481</v>
+        <v>0.0356</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0481</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0755</v>
+        <v>0.0759</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0751</v>
+        <v>0.0756</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0755</v>
+        <v>0.0761</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0757</v>
+        <v>0.0761</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0757</v>
+        <v>0.0761</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.1579</v>
       </c>
       <c r="C6" s="4">
-        <v>0.3629</v>
+        <v>0.1963</v>
       </c>
       <c r="D6" s="4">
-        <v>0.3674</v>
+        <v>0.2017</v>
       </c>
       <c r="E6" s="4">
-        <v>0.3683</v>
+        <v>0.2001</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3677</v>
+        <v>0.2006</v>
       </c>
       <c r="G6" s="4">
-        <v>0.3669</v>
+        <v>0.2006</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0896</v>
+        <v>0.0815</v>
       </c>
       <c r="D7" s="3">
-        <v>0.09039999999999999</v>
+        <v>0.0824</v>
       </c>
       <c r="E7" s="3">
-        <v>0.08989999999999999</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0898</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0898</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3139.972</v>
+        <v>3133.6691</v>
       </c>
       <c r="D8" s="1">
-        <v>3103.8305</v>
+        <v>3105.2682</v>
       </c>
       <c r="E8" s="1">
-        <v>3142.8331</v>
+        <v>3144.3491</v>
       </c>
       <c r="F8" s="1">
-        <v>3159.6643</v>
+        <v>3153.2303</v>
       </c>
       <c r="G8" s="1">
-        <v>3159.6118</v>
+        <v>3153.2303</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P89_KFSDIV.xlsx
+++ b/output/1Y_P89_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4908</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.6308</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3176</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2392</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.978999999999999</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1873</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4058</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2688</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4938</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.5481</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3262</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.462</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5775</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4908</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.6308</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3176</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2392</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.978999999999999</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1873</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4058</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2688</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4938</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.5481</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3262</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.462</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5775</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4908</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.6308</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3176</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2392</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.978999999999999</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1873</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4058</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2688</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4938</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.5481</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3262</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.462</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5775</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4908</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.6308</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3176</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2392</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.978999999999999</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1873</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4058</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2688</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4938</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.5481</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3262</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.462</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5775</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.4908</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.6308</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.3176</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.2392</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>9.978999999999999</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>10.1873</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.4058</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>10.2688</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>10.4938</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>10.5481</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10.3262</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>10.462</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>10.5775</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>3680.3905</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0167</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.0544</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0255</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0168</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
